--- a/Data/EC/NIT-9012753771.xlsx
+++ b/Data/EC/NIT-9012753771.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE647F48-424D-4ABC-8B8B-B41403CF1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63EC96A-6AEE-4551-A52F-D6DA00112B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B7E6311-CF59-4966-8F38-80BFD28DAACE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D229FB9E-3AC0-4B1A-972A-0C8424D95EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="88">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,132 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32938231</t>
+  </si>
+  <si>
+    <t>KATHERINE DEL CARMEN UTRIA RACERO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>7918023</t>
+  </si>
+  <si>
+    <t>VICTOR MISOL GOMEZ</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>73214134</t>
+  </si>
+  <si>
+    <t>ARIEL ENRIQUE ANAYA CHANTRY</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1047412150</t>
+  </si>
+  <si>
+    <t>ARNOLD DIAZ GARCIA</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1193571267</t>
+  </si>
+  <si>
+    <t>JUDITH AHUMADA TORRES</t>
+  </si>
+  <si>
+    <t>1235038447</t>
+  </si>
+  <si>
+    <t>LUZ DEY HERNANDEZ MEDINA</t>
+  </si>
+  <si>
     <t>1002194497</t>
   </si>
   <si>
@@ -74,13 +200,19 @@
     <t>2207</t>
   </si>
   <si>
-    <t>73214134</t>
-  </si>
-  <si>
-    <t>ARIEL ENRIQUE ANAYA CHANTRY</t>
-  </si>
-  <si>
-    <t>2208</t>
+    <t>1047506183</t>
+  </si>
+  <si>
+    <t>STEFANY DEL ROSARIO IRIARTE DEL TORO</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>924547218011993</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONZO MAGRINI PIÑA</t>
   </si>
   <si>
     <t>1007381211</t>
@@ -89,43 +221,22 @@
     <t>ANGEL LUIS DORIA DE LA ROSA</t>
   </si>
   <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>7918023</t>
-  </si>
-  <si>
-    <t>VICTOR MISOL GOMEZ</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>1047412150</t>
-  </si>
-  <si>
-    <t>ARNOLD DIAZ GARCIA</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1047506183</t>
-  </si>
-  <si>
-    <t>STEFANY DEL ROSARIO IRIARTE DEL TORO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>32938231</t>
-  </si>
-  <si>
-    <t>KATHERINE DEL CARMEN UTRIA RACERO</t>
-  </si>
-  <si>
-    <t>2307</t>
+    <t>1002249868</t>
+  </si>
+  <si>
+    <t>LAURA MELISSA TEHERAN LARENS</t>
+  </si>
+  <si>
+    <t>1007314855</t>
+  </si>
+  <si>
+    <t>ARNALDO REY SILGADO PEREZ</t>
+  </si>
+  <si>
+    <t>1002392893</t>
+  </si>
+  <si>
+    <t>KAREN MILENA PEREZ POLO</t>
   </si>
   <si>
     <t>1002198984</t>
@@ -134,97 +245,28 @@
     <t>LUISA FERNANDA VASQUEZ BRU</t>
   </si>
   <si>
-    <t>1002392893</t>
-  </si>
-  <si>
-    <t>KAREN MILENA PEREZ POLO</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>9295926</t>
   </si>
   <si>
     <t>PEDRO MANUEL ALCALA PAJARO</t>
   </si>
   <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1235038447</t>
-  </si>
-  <si>
-    <t>LUZ DEY HERNANDEZ MEDINA</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
+    <t>1007763701</t>
+  </si>
+  <si>
+    <t>LUIS ADALBERTO AGAMEZ MERCADO</t>
+  </si>
+  <si>
+    <t>30882153</t>
+  </si>
+  <si>
+    <t>BLEIDI BERRIO ACOSTA</t>
   </si>
   <si>
     <t>1143411407</t>
   </si>
   <si>
     <t>DANIELA ROUSE LUNA RODELO</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -268,7 +310,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,13 +665,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>674250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>437000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -638,7 +680,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA96406-BB34-5D21-F03F-5D321F316C93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716D58D2-B650-A227-02A9-19E26344906C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,7 +702,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="928250" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -989,32 +1031,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB54E37-32BA-44E0-AE1F-DED635DEAD7F}">
-  <dimension ref="B2:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7136ABFB-A839-47D4-A3FC-5C46C1D807A5}">
+  <dimension ref="B2:J128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1023,7 +1065,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1034,7 +1076,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1045,7 +1087,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1056,10 +1098,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1072,8 +1114,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1088,15 +1130,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3706561</v>
+        <v>4729584</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1104,27 +1146,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F13" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1144,16 +1186,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1167,145 +1209,145 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16000</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>5333</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
         <v>1160000</v>
@@ -1314,21 +1356,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1337,18 +1379,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1360,21 +1402,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>15467</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
         <v>1160000</v>
@@ -1383,21 +1425,21 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>38667</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
         <v>1160000</v>
@@ -1406,18 +1448,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1429,18 +1471,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1452,18 +1494,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1475,21 +1517,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>12373</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1498,18 +1540,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1521,18 +1563,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1544,18 +1586,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1567,18 +1609,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1590,18 +1632,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1613,18 +1655,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1636,18 +1678,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1659,18 +1701,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1682,18 +1724,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1705,18 +1747,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1728,21 +1770,21 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G41" s="18">
         <v>1160000</v>
@@ -1751,67 +1793,67 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>4000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
         <v>1000000</v>
@@ -1820,110 +1862,110 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>5333</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>16000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1935,18 +1977,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1958,18 +2000,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1981,18 +2023,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -2004,18 +2046,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2027,18 +2069,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2050,18 +2092,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2073,18 +2115,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2096,18 +2138,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2119,18 +2161,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2142,18 +2184,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2165,18 +2207,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2188,18 +2230,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2211,18 +2253,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2234,18 +2276,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2257,18 +2299,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2280,18 +2322,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2303,18 +2345,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2326,18 +2368,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2349,18 +2391,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2372,18 +2414,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D69" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2395,18 +2437,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2418,18 +2460,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2441,18 +2483,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2464,44 +2506,44 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
-        <v>3467</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F74" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G74" s="18">
         <v>1160000</v>
@@ -2510,18 +2552,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2533,18 +2575,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2556,18 +2598,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2579,18 +2621,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2602,18 +2644,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F79" s="18">
         <v>46400</v>
@@ -2625,18 +2667,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F80" s="18">
         <v>46400</v>
@@ -2648,41 +2690,41 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F81" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2694,21 +2736,21 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F83" s="18">
-        <v>46400</v>
+        <v>15467</v>
       </c>
       <c r="G83" s="18">
         <v>1160000</v>
@@ -2717,44 +2759,44 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>3796</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F85" s="18">
-        <v>46400</v>
+        <v>38667</v>
       </c>
       <c r="G85" s="18">
         <v>1160000</v>
@@ -2763,18 +2805,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2786,18 +2828,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F87" s="18">
         <v>46400</v>
@@ -2809,18 +2851,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2832,18 +2874,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2855,18 +2897,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2878,18 +2920,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2901,18 +2943,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2924,18 +2966,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -2947,18 +2989,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
@@ -2970,18 +3012,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -2993,18 +3035,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -3016,18 +3058,18 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
@@ -3039,18 +3081,18 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
@@ -3062,18 +3104,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
@@ -3085,57 +3127,563 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="23" t="s">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E100" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F100" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G100" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="26"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="32" t="s">
+      <c r="F100" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="18">
+        <v>15467</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G111" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="18">
+        <v>12373</v>
+      </c>
+      <c r="G112" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="H105" s="1" t="s">
+      <c r="E113" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G113" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="32" t="s">
+      <c r="E114" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G114" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
+      <c r="D115" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G115" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G116" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G117" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G118" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="D119" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G119" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G120" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G121" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="24">
+        <v>3467</v>
+      </c>
+      <c r="G122" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="26"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="H127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="H128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="H127:J127"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012753771.xlsx
+++ b/Data/EC/NIT-9012753771.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63EC96A-6AEE-4551-A52F-D6DA00112B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57CE376-B78D-4580-B187-59047B5CAFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D229FB9E-3AC0-4B1A-972A-0C8424D95EA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BEC8CF3-4239-47B3-BD6C-417F42FCE4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="76">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,208 +65,172 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1002194497</t>
+  </si>
+  <si>
+    <t>JOSE LUIS RODRIGUEZ JULIO</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>73214134</t>
+  </si>
+  <si>
+    <t>ARIEL ENRIQUE ANAYA CHANTRY</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1007381211</t>
+  </si>
+  <si>
+    <t>ANGEL LUIS DORIA DE LA ROSA</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>7918023</t>
+  </si>
+  <si>
+    <t>VICTOR MISOL GOMEZ</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1047412150</t>
+  </si>
+  <si>
+    <t>ARNOLD DIAZ GARCIA</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>32938231</t>
   </si>
   <si>
     <t>KATHERINE DEL CARMEN UTRIA RACERO</t>
   </si>
   <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1047506183</t>
+  </si>
+  <si>
+    <t>STEFANY DEL ROSARIO IRIARTE DEL TORO</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1002392893</t>
+  </si>
+  <si>
+    <t>KAREN MILENA PEREZ POLO</t>
+  </si>
+  <si>
+    <t>1002198984</t>
+  </si>
+  <si>
+    <t>LUISA FERNANDA VASQUEZ BRU</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>9295926</t>
+  </si>
+  <si>
+    <t>PEDRO MANUEL ALCALA PAJARO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1235038447</t>
+  </si>
+  <si>
+    <t>LUZ DEY HERNANDEZ MEDINA</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1143411407</t>
+  </si>
+  <si>
+    <t>DANIELA ROUSE LUNA RODELO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>7918023</t>
-  </si>
-  <si>
-    <t>VICTOR MISOL GOMEZ</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>73214134</t>
-  </si>
-  <si>
-    <t>ARIEL ENRIQUE ANAYA CHANTRY</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1047412150</t>
-  </si>
-  <si>
-    <t>ARNOLD DIAZ GARCIA</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1193571267</t>
-  </si>
-  <si>
-    <t>JUDITH AHUMADA TORRES</t>
-  </si>
-  <si>
-    <t>1235038447</t>
-  </si>
-  <si>
-    <t>LUZ DEY HERNANDEZ MEDINA</t>
-  </si>
-  <si>
-    <t>1002194497</t>
-  </si>
-  <si>
-    <t>JOSE LUIS RODRIGUEZ JULIO</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1047506183</t>
-  </si>
-  <si>
-    <t>STEFANY DEL ROSARIO IRIARTE DEL TORO</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>924547218011993</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONZO MAGRINI PIÑA</t>
-  </si>
-  <si>
-    <t>1007381211</t>
-  </si>
-  <si>
-    <t>ANGEL LUIS DORIA DE LA ROSA</t>
-  </si>
-  <si>
-    <t>1002249868</t>
-  </si>
-  <si>
-    <t>LAURA MELISSA TEHERAN LARENS</t>
-  </si>
-  <si>
-    <t>1007314855</t>
-  </si>
-  <si>
-    <t>ARNALDO REY SILGADO PEREZ</t>
-  </si>
-  <si>
-    <t>1002392893</t>
-  </si>
-  <si>
-    <t>KAREN MILENA PEREZ POLO</t>
-  </si>
-  <si>
-    <t>1002198984</t>
-  </si>
-  <si>
-    <t>LUISA FERNANDA VASQUEZ BRU</t>
-  </si>
-  <si>
-    <t>9295926</t>
-  </si>
-  <si>
-    <t>PEDRO MANUEL ALCALA PAJARO</t>
-  </si>
-  <si>
-    <t>1007763701</t>
-  </si>
-  <si>
-    <t>LUIS ADALBERTO AGAMEZ MERCADO</t>
-  </si>
-  <si>
-    <t>30882153</t>
-  </si>
-  <si>
-    <t>BLEIDI BERRIO ACOSTA</t>
-  </si>
-  <si>
-    <t>1143411407</t>
-  </si>
-  <si>
-    <t>DANIELA ROUSE LUNA RODELO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +329,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +344,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +544,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +588,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,13 +629,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>674250</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>437000</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -680,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716D58D2-B650-A227-02A9-19E26344906C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73D0ACF-F078-E824-7D2B-7BD49CD99448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +666,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="928250" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1031,8 +995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7136ABFB-A839-47D4-A3FC-5C46C1D807A5}">
-  <dimension ref="B2:J128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB568AB-11E2-4240-AAFE-CEE571548F8F}">
+  <dimension ref="B2:J112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1056,7 +1020,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1101,7 +1065,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1133,12 +1097,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4729584</v>
+        <v>3984961</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1149,17 +1113,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1186,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1209,10 +1173,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>16000</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1223,19 +1187,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1246,19 +1210,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1269,19 +1233,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1292,19 +1256,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1315,19 +1279,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>5333</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1338,16 +1302,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G22" s="18">
         <v>1160000</v>
@@ -1361,16 +1325,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1384,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1407,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1430,16 +1394,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>38667</v>
       </c>
       <c r="G26" s="18">
         <v>1160000</v>
@@ -1453,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>15467</v>
       </c>
       <c r="G27" s="18">
         <v>1160000</v>
@@ -1476,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1499,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1522,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1545,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>12373</v>
       </c>
       <c r="G31" s="18">
         <v>1160000</v>
@@ -1568,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1591,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1614,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1637,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1660,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1683,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1706,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1729,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1752,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1775,16 +1739,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
         <v>1160000</v>
@@ -1798,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>4000000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1821,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1844,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1867,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>5333</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1890,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1913,19 +1877,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1936,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>16000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1959,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1982,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -2005,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -2028,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -2051,13 +2015,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2074,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2097,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2120,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2143,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2166,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2189,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2212,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2235,13 +2199,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2258,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2281,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2304,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2327,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2350,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2373,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2396,13 +2360,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2419,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2442,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2465,13 +2429,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2488,13 +2452,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2511,19 +2475,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F73" s="18">
-        <v>46400</v>
+        <v>3467</v>
       </c>
       <c r="G73" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2534,16 +2498,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F74" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G74" s="18">
         <v>1160000</v>
@@ -2554,16 +2518,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2577,16 +2541,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2600,16 +2564,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2623,16 +2587,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2646,16 +2610,16 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F79" s="18">
         <v>46400</v>
@@ -2669,16 +2633,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F80" s="18">
         <v>46400</v>
@@ -2695,19 +2659,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2718,13 +2682,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2741,16 +2705,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F83" s="18">
-        <v>15467</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
         <v>1160000</v>
@@ -2764,19 +2728,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F84" s="18">
-        <v>3796</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2787,16 +2751,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F85" s="18">
-        <v>38667</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
         <v>1160000</v>
@@ -2810,13 +2774,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2833,13 +2797,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F87" s="18">
         <v>46400</v>
@@ -2856,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2879,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2902,13 +2866,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2925,13 +2889,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2948,13 +2912,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2971,13 +2935,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -2994,13 +2958,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
@@ -3017,13 +2981,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -3040,13 +3004,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -3063,13 +3027,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
@@ -3086,13 +3050,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
@@ -3109,13 +3073,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
@@ -3132,13 +3096,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F100" s="18">
         <v>46400</v>
@@ -3155,13 +3119,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F101" s="18">
         <v>46400</v>
@@ -3178,13 +3142,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F102" s="18">
         <v>46400</v>
@@ -3201,13 +3165,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F103" s="18">
         <v>46400</v>
@@ -3224,13 +3188,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F104" s="18">
         <v>46400</v>
@@ -3247,13 +3211,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F105" s="18">
         <v>46400</v>
@@ -3266,424 +3230,56 @@
       <c r="J105" s="20"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="B106" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F107" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E108" s="16" t="s">
+      <c r="D106" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F110" s="18">
-        <v>15467</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="E106" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="26"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F111" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="B111" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="32"/>
+      <c r="H111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" s="18">
-        <v>12373</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
+      <c r="B112" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
+      <c r="C112" s="32"/>
+      <c r="H112" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D122" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" s="24">
-        <v>3467</v>
-      </c>
-      <c r="G122" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="26"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C127" s="32"/>
-      <c r="H127" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C128" s="32"/>
-      <c r="H128" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="H111:J111"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
